--- a/mappingCorps/ig/StructureDefinition-fr-observation-pregnancy-document.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-observation-pregnancy-document.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-16T14:59:20+00:00</t>
+    <t>2026-01-22T09:24:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-observation-pregnancy-document.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-observation-pregnancy-document.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-22T09:24:45+00:00</t>
+    <t>2026-01-22T13:29:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-observation-pregnancy-document.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-observation-pregnancy-document.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-22T13:29:51+00:00</t>
+    <t>2026-01-26T10:27:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-observation-pregnancy-document.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-observation-pregnancy-document.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-26T10:27:23+00:00</t>
+    <t>2026-02-03T11:02:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-observation-pregnancy-document.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-observation-pregnancy-document.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-03T11:02:09+00:00</t>
+    <t>2026-02-04T10:58:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1260,7 +1260,7 @@
     <t>Observation.bodySite</t>
   </si>
   <si>
-    <t>Observed body part</t>
+    <t>Localisation anatomique</t>
   </si>
   <si>
     <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).</t>
@@ -8285,7 +8285,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
         <v>397</v>
       </c>
@@ -8304,7 +8304,7 @@
         <v>93</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>82</v>
